--- a/Scrapy/weibohot/weibohot29102020.xlsx
+++ b/Scrapy/weibohot/weibohot29102020.xlsx
@@ -45,6 +45,15 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="29-10-2020-18-20-02" sheetId="36" state="visible" r:id="rId36"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="29-10-2020-18-40-02" sheetId="37" state="visible" r:id="rId37"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="29-10-2020-19-00-02" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="29-10-2020-19-20-02" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="29-10-2020-19-40-01" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="29-10-2020-20-00-02" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="29-10-2020-20-20-01" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="29-10-2020-20-40-02" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="29-10-2020-21-00-02" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="29-10-2020-21-20-01" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="29-10-2020-21-40-02" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="29-10-2020-22-00-02" sheetId="47" state="visible" r:id="rId47"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1578,6 +1587,777 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>沈梦辰杜海涛正在筹备婚礼</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2940895</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>韩国首尔至北京直航航班将恢复</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1397244</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>金瀚张芷溪街头拥吻</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1351225</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>姜大卫回应周杰伦像他的私生子</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1215182</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MAMA提名</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1068657</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>上海一初中生指出历史教科书钱币错误</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>905462</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>十九届五中全会公报</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>854925</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>预计2020年GDP突破100万亿元</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>849778</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>美国中餐女王去世</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>846108</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>这就是嫁给爱情的样子吧</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>782973</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>韩国吃播博主与芝士喷泉</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>622298</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>17年自费30万救下403位跳江者</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>616093</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>东京部分居民血液有害物质超标</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>605671</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>苹果供应商工厂发生火灾</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>590589</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Angelababy冲浪翻车现场</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>578937</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>台军坠机飞行员被伞绳缠住不治身亡</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>569388</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖水果大姐和大学生飙英语交流</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>526818</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>国防部回应对台军事部署</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>414069</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>庄媛媛</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>391545</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>张一山新恋情</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>387247</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>网红脱糖电饭锅并不脱糖</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>366997</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>上海查获盲盒售假团伙</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>347421</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>少女表演水中倒立行走</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>335336</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>韩国综艺到底有多敢拍</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>329024</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>金莎盛况好甜</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>328690</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>许魏洲雅安分洲</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>327555</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2035年基本实现社会主义现代化远景目标</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>327047</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>8个体育老师5个是班主任</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>325510</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>高校规定学生7点半必须起床</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>325450</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SM回应朴灿烈私生活传闻</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>325449</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>你打字有网络口音吗</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>302879</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>抚顺6岁被虐女童体表重伤2级</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>262519</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>法国将再次封国</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>261339</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>帮孩子做手工作业家长扎了条龙</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>261145</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>住酒店最安全的打开方式</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>239782</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>湖北冷链车侧翻倾泄物疑似问题猪肉</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>216294</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>男子将电线杆画出断裂悬浮效果</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>216054</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Costco宣布停止从泰国进口椰子制品</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>215766</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>法国尼斯持刀袭击致3死</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>215086</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>6岁被虐女童已收到捐款156万</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>214991</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>假如欧美diva参加超女选秀</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>214227</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>微博杯</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>213846</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>日本新冠确诊超10万例</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>213748</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>国防部介绍近期中美两军交往安排</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>212996</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>英雄联盟手游</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>212905</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>中国田径修改世界大赛选拔办法</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>212470</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>张继科曾两次掉井盖</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>212074</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>禹元材把银行帐号纹在手臂上</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>196206</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>川美校庆院长变身卓别林逗笑全场</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>195671</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1606,6 +2386,6084 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>热度</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>沈梦辰杜海涛正在筹备婚礼</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2733439</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>韩国首尔至北京直航航班将恢复</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1947117</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>金瀚张芷溪街头拥吻</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1905217</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>庄媛媛</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1606599</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>姜大卫回应周杰伦像他的私生子</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1080428</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>台军坠机飞行员被伞绳缠住不治身亡</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>946277</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>上海一初中生指出历史教科书钱币错误</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>946033</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2035年基本实现社会主义现代化远景目标</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>946028</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Costco宣布停止从泰国进口椰子制品</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>946023</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>韩国吃播博主与芝士喷泉</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>909572</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MAMA提名</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>808291</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>这就是嫁给爱情的样子吧</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>644485</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>十九届五中全会公报</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>634479</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>美国中餐女王去世</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>627821</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Angelababy冲浪翻车现场</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>584842</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖水果大姐和大学生飙英语交流</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>474217</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>预计2020年GDP突破100万亿元</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>461645</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>国防部回应对台军事部署</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>441293</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>6岁被虐女童已收到捐款156万</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>384704</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>张一山新恋情</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>377999</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>网红脱糖电饭锅并不脱糖</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>349921</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>韩国综艺到底有多敢拍</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>284138</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>少女表演水中倒立行走</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>278793</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>你打字有网络口音吗</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>275462</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>金莎盛况好甜</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>274806</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>许魏洲雅安分洲</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>274674</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>抚顺6岁被虐女童体表重伤2级</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>274058</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>8个体育老师5个是班主任</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>273815</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>上海查获盲盒售假团伙</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>273617</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SM回应朴灿烈私生活传闻</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>273421</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>苹果供应商工厂发生火灾</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>272747</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>17年自费30万救下403位跳江者</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>263825</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>法国将再次封国</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>251520</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>帮孩子做手工作业家长扎了条龙</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>243266</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>高校规定学生7点半必须起床</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>225702</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>住酒店最安全的打开方式</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>220839</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>东京部分居民血液有害物质超标</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>213142</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>张继科曾两次掉井盖</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>189746</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>假如欧美diva参加超女选秀</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>189569</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>微博杯</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>189183</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>国防部介绍近期中美两军交往安排</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>188870</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>北京地铁1号线22座车站完成AED安装</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>188170</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>日照3500亩枫林仿佛红色海洋</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>187931</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>男子将电线杆画出断裂悬浮效果</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>187487</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>自带滤镜的天空有多浪漫</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>187069</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>QG二队好强</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>186791</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>湖北冷链车侧翻倾泄物疑似问题猪肉</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>186496</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>法国尼斯持刀袭击致3死</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>160865</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>沈梦辰杜海涛正在筹备婚礼</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2528584</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>韩国首尔至北京直航航班将恢复</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2017730</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>金瀚张芷溪街头拥吻</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1689084</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>庄媛媛</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1654935</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Costco宣布停止从泰国进口椰子制品</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1321244</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>台军坠机飞行员被伞绳缠住不治身亡</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1069000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>上海一初中生指出历史教科书钱币错误</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1046951</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2035年基本实现社会主义现代化远景目标</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1044297</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>郑爽妈妈发文</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1042390</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>韩国吃播博主与芝士喷泉</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1000982</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6岁被虐女童已收到捐款156万</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>756037</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MAMA提名</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>701038</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>抚顺6岁被虐女童体表重伤2级</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>656220</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>这就是嫁给爱情的样子吧</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>648053</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>姜大卫回应周杰伦像他的私生子</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>544843</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖水果大姐和大学生飙英语交流</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>432625</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>预计2020年GDP突破100万亿元</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>420114</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>国防部回应对台军事部署</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>386363</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>美国中餐女王去世</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>354365</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Angelababy冲浪翻车现场</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>334364</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>北京地铁1号线22座车站完成AED安装</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>314134</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>网红脱糖电饭锅并不脱糖</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>307220</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>少女表演水中倒立行走</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>301646</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>十九届五中全会公报</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>300545</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>金莎盛况好甜</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>299032</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>张一山新恋情</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>288664</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>你打字有网络口音吗</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>271570</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>国防部介绍近期中美两军交往安排</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>269299</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>帮孩子做手工作业家长扎了条龙</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>268714</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>许魏洲雅安分洲</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>261054</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SM回应朴灿烈私生活传闻</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>253834</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>韩国综艺到底有多敢拍</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>242402</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>外交部回应美逮捕参与猎狐行动人员</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>225151</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>苹果供应商工厂发生火灾</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>216320</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>上海查获盲盒售假团伙</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>207013</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>住酒店最安全的打开方式</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>205614</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>高校规定学生7点半必须起床</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>190642</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>东京部分居民血液有害物质超标</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>178769</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>17年自费30万救下403位跳江者</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>177379</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>张继科曾两次掉井盖</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>175671</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>自带滤镜的天空有多浪漫</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>103228</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>134元网购手机配件牵出1.1亿元制假案</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>86125</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>QG二队好强</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>81537</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>日照3500亩枫林仿佛红色海洋</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>80978</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>微博杯</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>79788</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>湖北冷链车侧翻倾泄物疑似问题猪肉</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>78380</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>法国尼斯持刀袭击致3死</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>77178</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>8个体育老师5个是班主任</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>76332</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>男子将电线杆画出断裂悬浮效果</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>75431</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>郑爽妈妈发文</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3591894</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>韩国首尔至北京直航航班将恢复</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1948830</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>沈梦辰杜海涛正在筹备婚礼</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1831756</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>庄媛媛</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1700824</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>金瀚张芷溪街头拥吻</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1499109</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>台军坠机飞行员被伞绳缠住不治身亡</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1224164</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>上海一初中生指出历史教科书钱币错误</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1210581</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2035年基本实现社会主义现代化远景目标</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1206346</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Costco宣布停止从泰国进口椰子制品</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1203371</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>6岁被虐女童已收到捐款156万</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>906097</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>韩国吃播博主与芝士喷泉</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>883329</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>这就是嫁给爱情的样子吧</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>644320</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>抚顺6岁被虐女童体表重伤2级</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>619085</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MAMA提名</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>618461</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>姜大卫回应周杰伦像他的私生子</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>615384</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖水果大姐和大学生飙英语交流</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>427186</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>预计2020年GDP突破100万亿元</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>405841</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>国防部介绍近期中美两军交往安排</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>369067</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>美国中餐女王去世</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>350573</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Angelababy冲浪翻车现场</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>327882</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>北京地铁1号线22座车站完成AED安装</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>309091</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>134元网购手机配件牵出1.1亿元制假案</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>290986</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>少女表演水中倒立行走</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>284339</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>十九届五中全会公报</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>278000</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>金莎盛况好甜</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>277733</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>张一山新恋情</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>277128</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>网红脱糖电饭锅并不脱糖</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>276478</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>国防部回应对台军事部署</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>266361</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>你打字有网络口音吗</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>266249</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>许魏洲雅安分洲</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>264184</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SM回应朴灿烈私生活传闻</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>253140</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>帮孩子做手工作业家长扎了条龙</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>250692</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>外交部回应美逮捕参与猎狐行动人员</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>206104</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>韩国综艺到底有多敢拍</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>204191</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>法国尼斯持刀袭击致3死</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>201301</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>苹果供应商工厂发生火灾</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>200242</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>上海查获盲盒售假团伙</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>195778</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>住酒店最安全的打开方式</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>187619</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>东京部分居民血液有害物质超标</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>178706</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>张继科曾两次掉井盖</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>164212</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>如何看待00后提桶者</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>142286</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>高校规定学生7点半必须起床</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>139064</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>17年自费30万救下403位跳江者</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>130014</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>93岁志愿军老战士丢失纪念章被送回</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>118446</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>日照3500亩枫林仿佛红色海洋</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>111540</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>微博杯</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>102871</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QG二队好强</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>90703</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>8个体育老师5个是班主任</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>71637</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>郑爽妈妈发文</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3518463</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>韩国首尔至北京直航航班将恢复</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2213723</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>沈梦辰杜海涛正在筹备婚礼</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1592197</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>金瀚张芷溪街头拥吻</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1409270</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>庄媛媛</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1348787</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>台军坠机飞行员被伞绳缠住不治身亡</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1314857</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>上海一初中生指出历史教科书钱币错误</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1202010</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2035年基本实现社会主义现代化远景目标</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1177459</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Costco宣布停止从泰国进口椰子制品</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1105814</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>韩国吃播博主与芝士喷泉</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>766411</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6岁被虐女童已收到捐款156万</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>758409</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>这就是嫁给爱情的样子吧</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>623757</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>134元网购手机配件牵出1.1亿元制假案</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>565132</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MAMA提名</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>538220</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>姜大卫回应周杰伦像他的私生子</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>496362</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖水果大姐和大学生飙英语交流</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>408429</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>国防部介绍近期中美两军交往安排</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>389109</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>预计2020年GDP突破100万亿元</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>385311</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>美国中餐女王去世</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>355782</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>李佳琦直播</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>340135</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>如何看待00后提桶者</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>327149</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>抚顺6岁被虐女童体表重伤2级</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>307658</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>少女表演水中倒立行走</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>291426</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>北京地铁1号线22座车站完成AED安装</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>282699</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Angelababy冲浪翻车现场</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>281495</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>金莎盛况好甜</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>272681</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>外交部回应美逮捕参与猎狐行动人员</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>261603</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>国防部回应对台军事部署</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>260350</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>帮孩子做手工作业家长扎了条龙</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>254565</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>许魏洲雅安分洲</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>252460</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>十九届五中全会公报</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>244435</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>网红脱糖电饭锅并不脱糖</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>232959</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>你打字有网络口音吗</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>212985</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>韩国综艺到底有多敢拍</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>185598</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SM回应朴灿烈私生活传闻</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>182764</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>苹果供应商工厂发生火灾</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>179773</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>住酒店最安全的打开方式</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>171467</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>东京部分居民血液有害物质超标</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>170406</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>法国尼斯持刀袭击致3死</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>168295</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>德云斗笑社</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>160566</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>张一山新恋情</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>141201</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>台风天鹅</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>117457</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>93岁志愿军老战士丢失纪念章被送回</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>100014</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>南京地铁实现移动5G全覆盖</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>93079</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>日照3500亩枫林仿佛红色海洋</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>89828</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>微博杯</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>86842</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QG二队好强</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>84743</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>上海查获盲盒售假团伙</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>79925</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>郑爽妈妈发文</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3408890</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>韩国首尔至北京直航航班将恢复</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2306612</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>沈梦辰杜海涛正在筹备婚礼</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1407764</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>金瀚张芷溪街头拥吻</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1383627</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Costco宣布停止从泰国进口椰子制品</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1104608</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>台军坠机飞行员被伞绳缠住不治身亡</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>846249</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>134元网购手机配件牵出1.1亿元制假案</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>784404</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2035年基本实现社会主义现代化远景目标</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>784251</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>韩国吃播博主与芝士喷泉</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>784249</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>这就是嫁给爱情的样子吧</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>698803</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6岁被虐女童已收到捐款156万</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>633323</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MAMA提名</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>543327</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>上海一初中生指出历史教科书钱币错误</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>484194</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>美国中餐女王去世</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>478749</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>李佳琦直播</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>477358</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>德云斗笑社</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>474205</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>南京地铁实现移动5G全覆盖</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>471651</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>预计2020年GDP突破100万亿元</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>470346</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>庄媛媛</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>464902</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>姜大卫回应周杰伦像他的私生子</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>464024</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>从结婚开始恋爱</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>461578</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>卖水果大姐和大学生飙英语交流</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>425554</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>如何看待00后提桶者</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>337333</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>抚顺6岁被虐女童体表重伤2级</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>295579</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Angelababy冲浪翻车现场</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>288892</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>金莎盛况好甜</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>282649</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>十九届五中全会公报</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>269358</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>国防部介绍近期中美两军交往安排</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>262581</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>帮孩子做手工作业家长扎了条龙</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>254680</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>北京地铁1号线22座车站完成AED安装</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>251330</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>电视剧里的跳崖有多沙雕</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>244407</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>张一山新恋情</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>235018</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>外交部回应美逮捕参与猎狐行动人员</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>225763</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>台风天鹅</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>224831</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SM回应朴灿烈私生活传闻</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>207639</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>网红脱糖电饭锅并不脱糖</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>203843</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>你打字有网络口音吗</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>198158</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>幸福三重奏</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>177408</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>如意芳霏</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>172677</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>韩国综艺到底有多敢拍</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>169607</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>欧小剑表白马晓晓</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>163338</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>苹果供应商工厂发生火灾</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>161420</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>少女表演水中倒立行走</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>157491</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>东京部分居民血液有害物质超标</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>145619</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>国防部回应对台军事部署</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>94316</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>QG二队好强</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>93922</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>日照3500亩枫林仿佛红色海洋</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>86569</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>微博杯</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>67915</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>郑爽妈妈发文</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3137132</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>134元网购手机配件牵出1.1亿元制假案</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1915379</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>从结婚开始恋爱</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1461013</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>沈梦辰杜海涛正在筹备婚礼</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1342852</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>金瀚张芷溪街头拥吻</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1331672</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>台军坠机飞行员被伞绳缠住不治身亡</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1095514</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>韩国首尔至北京直航航班将恢复</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>993577</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2035年基本实现社会主义现代化远景目标</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>956269</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Costco宣布停止从泰国进口椰子制品</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>951862</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>这就是嫁给爱情的样子吧</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>881842</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>幸福三重奏</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>735369</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>韩国吃播博主与芝士喷泉</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>728654</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>上海一初中生指出历史教科书钱币错误</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>567517</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6岁被虐女童已收到捐款156万</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>553375</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>李佳琦直播</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>548374</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖水果大姐和大学生飙英语交流</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>535028</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>南京地铁实现移动5G全覆盖</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>522641</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>预计2020年GDP突破100万亿元</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>521670</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>电视剧里的跳崖有多沙雕</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>505342</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>姜大卫回应周杰伦像他的私生子</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>抚顺6岁被虐女童体表重伤2级</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>449695</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>少女表演水中倒立行走</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>443629</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>QG二队好强</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>442740</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>德云斗笑社</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>441877</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MAMA提名</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>433448</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Angelababy冲浪翻车现场</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>365308</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>十九届五中全会公报</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>329977</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>国防部介绍近期中美两军交往安排</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>329401</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>美国中餐女王去世</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>329087</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>庄媛媛</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>318624</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>如意芳霏</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>289244</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>如何看待00后提桶者</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>278186</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>外交部回应美逮捕参与猎狐行动人员</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>258621</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>日照3500亩枫林仿佛红色海洋</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>256257</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>金莎盛况好甜</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>255565</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>帮孩子做手工作业家长扎了条龙</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>228001</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>台风天鹅</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>197946</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>近200个欧洲机场面临破产风险</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>197624</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>张一山新恋情</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>197573</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>北京地铁1号线22座车站完成AED安装</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>187785</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>网红脱糖电饭锅并不脱糖</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>176868</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>肃王强吻傅容</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>172809</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>你打字有网络口音吗</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>157529</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SM回应朴灿烈私生活传闻</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>157167</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>丰田将召回266万辆汽车</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>154348</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>东京部分居民血液有害物质超标</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>154310</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>欧小剑表白马晓晓</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>154299</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>韩国综艺到底有多敢拍</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>110364</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>郑爽妈妈发文</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2957996</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>134元网购手机配件牵出1.1亿元制假案</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2224126</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>从结婚开始恋爱</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1967589</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>沈梦辰杜海涛正在筹备婚礼</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1288624</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>金瀚张芷溪街头拥吻</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1165260</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>台军坠机飞行员被伞绳缠住不治身亡</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1133598</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>韩国首尔至北京直航航班将恢复</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1123972</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2035年基本实现社会主义现代化远景目标</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1123746</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>幸福三重奏</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1123725</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>这就是嫁给爱情的样子吧</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>852819</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Costco宣布停止从泰国进口椰子制品</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>825638</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>韩国吃播博主与芝士喷泉</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>622954</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>上海一初中生指出历史教科书钱币错误</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>541389</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6岁被虐女童已收到捐款156万</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>490833</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>李佳琦直播</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>488138</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖水果大姐和大学生飙英语交流</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>480475</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>南京地铁实现移动5G全覆盖</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>476187</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>近200个欧洲机场面临破产风险</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>469140</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>电视剧里的跳崖有多沙雕</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>461245</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>姜大卫回应周杰伦像他的私生子</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>458454</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>抚顺6岁被虐女童体表重伤2级</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>448847</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>丰田将召回266万辆汽车</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>445214</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>少女表演水中倒立行走</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>444163</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MAMA提名</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>444021</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>德云斗笑社</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>428300</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Angelababy冲浪翻车现场</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>361161</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>十九届五中全会公报</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>357089</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>预计2020年GDP突破100万亿元</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>354224</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>如意芳霏</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>353312</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>庄媛媛</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>327352</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>美国中餐女王去世</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>285648</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>吃油泼面的潜在风险</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>267628</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>外交部回应美逮捕参与猎狐行动人员</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>236888</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>如何看待00后提桶者</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>230111</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>雪梨直播</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>218949</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>肃王强吻傅容</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>217131</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>万圣节当天最社会的狗子</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>217103</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>傅宣扑倒吴白起</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>217092</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>金莎盛况好甜</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>217086</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>你有哪些奇特的解压方式</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>213986</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>棋魂还原度</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>213109</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>帮孩子做手工作业家长扎了条龙</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>212470</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>AG DYG</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>209726</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>萧承煦遗憾下线</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>205516</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>网红脱糖电饭锅并不脱糖</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>198898</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>QG二队好强</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>196776</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>国防部介绍近期中美两军交往安排</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>188089</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>印度累计新冠确诊病例超过800万</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>183174</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>郑爽妈妈发文</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2843201</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>134元网购手机配件牵出1.1亿元制假案</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2384979</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>从结婚开始恋爱</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1933034</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>沈梦辰杜海涛正在筹备婚礼</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1314218</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>幸福三重奏</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1195900</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>台军坠机飞行员被伞绳缠住不治身亡</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1159204</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>韩国首尔至北京直航航班将恢复</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1141537</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2035年基本实现社会主义现代化远景目标</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1139303</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>金瀚张芷溪街头拥吻</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1138906</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>这就是嫁给爱情的样子吧</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>932323</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Costco宣布停止从泰国进口椰子制品</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>798683</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>韩国吃播博主与芝士喷泉</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>611390</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>上海一初中生指出历史教科书钱币错误</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>542321</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6岁被虐女童已收到捐款156万</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>493303</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>近200个欧洲机场面临破产风险</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>490145</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖水果大姐和大学生飙英语交流</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>487941</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>丰田将召回266万辆汽车</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>483236</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>南京地铁实现移动5G全覆盖</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>481284</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>吃油泼面的潜在风险</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>475348</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>李佳琦直播</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>474315</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>电视剧里的跳崖有多沙雕</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>470235</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>抚顺6岁被虐女童体表重伤2级</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>463787</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>少女表演水中倒立行走</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>461037</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MAMA提名</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>459552</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>姜大卫回应周杰伦像他的私生子</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>434305</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>雪梨直播</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>424365</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>十九届五中全会公报</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>416554</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>预计2020年GDP突破100万亿元</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>415821</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>德云斗笑社</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>415704</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>庄媛媛</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>405979</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>如意芳霏</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>374357</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Angelababy冲浪翻车现场</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>314251</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>外交部回应美逮捕参与猎狐行动人员</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>312302</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>万圣节当天最社会的狗子</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>311446</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>印度累计新冠确诊病例超过800万</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>284718</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>肃王强吻傅容</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>261160</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>美国中餐女王去世</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>229320</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>帮孩子做手工作业家长扎了条龙</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>197877</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>萧承煦遗憾下线</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>194575</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>棋魂还原度</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>180434</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>如何看待00后提桶者</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>180069</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>金莎盛况好甜</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>177562</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>何猷君奚梦瑶好甜</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>165053</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>傅宣扑倒吴白起</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>164432</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>网红脱糖电饭锅并不脱糖</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>146574</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>QG二队好强</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>138409</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>AG DYG</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>134554</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>国防部介绍近期中美两军交往安排</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>132301</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>你有哪些奇特的解压方式</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>131630</t>
         </is>
       </c>
     </row>
